--- a/Content/UserAccounts.xlsx
+++ b/Content/UserAccounts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishan.shinde/Downloads/SMTPToolExchange-master/Content/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishan.shinde/PycharmProjects/SMTPToolO365/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E20131-1E58-1B42-867B-395915675F8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4507E3-A5B2-0742-9CE2-4ADEB920B433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{B305AFD3-C703-AB45-93B6-225905D7E2F8}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ishan.shinde@veritas.com</t>
+    <t>abc@veritas.com</t>
   </si>
   <si>
-    <t>Veritas123i@@</t>
+    <t>newuser@123</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Content/UserAccounts.xlsx
+++ b/Content/UserAccounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishan.shinde/PycharmProjects/SMTPToolO365/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4507E3-A5B2-0742-9CE2-4ADEB920B433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D2CBA-0A3F-3441-9F0A-4A4B9AF7ED1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{B305AFD3-C703-AB45-93B6-225905D7E2F8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -41,10 +41,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>abc@veritas.com</t>
+    <t>Ishan.Shinde@veritas.com</t>
   </si>
   <si>
-    <t>newuser@123</t>
+    <t>Veritas123i@@</t>
   </si>
 </sst>
 </file>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6FE13F-EA16-3B44-86EC-4E30D6159B20}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -424,22 +424,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Content/UserAccounts.xlsx
+++ b/Content/UserAccounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishan.shinde/PycharmProjects/SMTPToolO365/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403D2CBA-0A3F-3441-9F0A-4A4B9AF7ED1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91920681-EA3F-C440-A69C-1A0E0E506779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{B305AFD3-C703-AB45-93B6-225905D7E2F8}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Ishan.Shinde@veritas.com</t>
+    <t>abc@veritas.com</t>
   </si>
   <si>
-    <t>Veritas123i@@</t>
+    <t>nnewuser@123</t>
   </si>
 </sst>
 </file>

--- a/Content/UserAccounts.xlsx
+++ b/Content/UserAccounts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ishan.shinde/PycharmProjects/SMTPToolO365/Content/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91920681-EA3F-C440-A69C-1A0E0E506779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F45D28-5054-824D-B6AF-F170C3ADD2D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{B305AFD3-C703-AB45-93B6-225905D7E2F8}"/>
   </bookViews>
